--- a/LanguageSchool.xlsx
+++ b/LanguageSchool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\LanguageSchool-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34312725-27FB-4520-B839-7E360086978B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EA8D69-F9E0-4816-BCBF-991BFCA4E634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="312" windowWidth="17280" windowHeight="11616" activeTab="1" xr2:uid="{08832899-6039-4558-8862-CB8262F98BA7}"/>
+    <workbookView xWindow="3840" yWindow="312" windowWidth="17280" windowHeight="11616" activeTab="1" xr2:uid="{A6C1EA39-F673-4526-B903-90B19685A84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="24">
   <si>
     <t>Language</t>
   </si>
@@ -59,52 +59,55 @@
     <t>ID</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Шишкин</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Попов</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Котов</t>
+  </si>
+  <si>
+    <t>Серов</t>
+  </si>
+  <si>
+    <t>Федоров</t>
+  </si>
+  <si>
+    <t>Яров</t>
+  </si>
+  <si>
+    <t>Чернов</t>
+  </si>
+  <si>
+    <t>Игнатов</t>
+  </si>
+  <si>
+    <t>Свиридов</t>
+  </si>
+  <si>
+    <t>Ильин</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
     <t>German</t>
-  </si>
-  <si>
-    <t>Свиридов</t>
-  </si>
-  <si>
-    <t>Серов</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Котов</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Чернов</t>
-  </si>
-  <si>
-    <t>Игнатов</t>
-  </si>
-  <si>
-    <t>Шишкин</t>
-  </si>
-  <si>
-    <t>Федоров</t>
-  </si>
-  <si>
-    <t>Яров</t>
-  </si>
-  <si>
-    <t>Попов</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>English</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37FD224-F3E8-43B7-B587-E04D5A6B9BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDABA99C-9E3D-4E7E-9E33-8795D7EEF9C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -468,8 +471,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65761B39-4092-4DDB-9BAE-BFF73A5A9835}">
-  <dimension ref="A1:G102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91532BB-3FB1-444B-96DA-890BD00AAD9F}">
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,19 +509,19 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>86</v>
+        <v>1515</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>866</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>754</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -526,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>829</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -534,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>971</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -542,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>729</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,355 +553,334 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7">
-        <v>482</v>
-      </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>901</v>
+      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>596</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>259</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>174</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>210</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12">
-        <v>585</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>139</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <v>268</v>
-      </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13">
-        <v>139</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14">
-        <v>756</v>
-      </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>758</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
-        <v>228</v>
+        <v>789</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>758</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E16">
-        <v>638</v>
-      </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>758</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <v>770</v>
-      </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>758</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18">
-        <v>990</v>
-      </c>
       <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19">
-        <v>629</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
       <c r="G19">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20">
-        <v>645</v>
+        <v>922</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>67</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>559</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E22">
-        <v>327</v>
+        <v>792</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>239</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E23">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E24">
-        <v>594</v>
+        <v>721</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>934</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E25">
-        <v>72</v>
+        <v>606</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>172</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E26">
-        <v>851</v>
+        <v>727</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>957</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E27">
-        <v>536</v>
+        <v>805</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>553</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E28">
-        <v>646</v>
+        <v>378</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>968</v>
+        <v>948</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E29">
-        <v>981</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G29">
-        <v>679</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E30">
-        <v>901</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G30">
-        <v>367</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E31">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>741</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E32">
-        <v>602</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>226</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>1567</v>
+        <v>2988</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>536</v>
+        <v>661</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>139</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>800</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>345</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>194</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G37">
-        <v>148</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>838</v>
+      </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>37</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E39">
-        <v>674</v>
-      </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>845</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -906,632 +888,700 @@
         <v>13</v>
       </c>
       <c r="G40">
-        <v>367</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>938</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>846</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G42">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E44">
-        <v>585</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E45">
-        <v>268</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E46">
-        <v>756</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
       <c r="G46">
-        <v>206</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47">
-        <v>228</v>
-      </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47">
-        <v>206</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>786</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48">
-        <v>638</v>
+        <v>411</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E49">
-        <v>770</v>
-      </c>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E50">
-        <v>990</v>
-      </c>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E51">
-        <v>629</v>
-      </c>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G51">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E52">
-        <v>645</v>
-      </c>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G52">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E53">
-        <v>724</v>
-      </c>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E54">
-        <v>325</v>
-      </c>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G54">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55">
-        <v>319</v>
+        <v>801</v>
       </c>
       <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
         <v>18</v>
       </c>
-      <c r="G55">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E56">
-        <v>589</v>
-      </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G56">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E57">
-        <v>71</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E58">
-        <v>844</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E59">
-        <v>866</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
       <c r="G59">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E60">
-        <v>646</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
         <v>8</v>
       </c>
       <c r="G60">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61">
-        <v>981</v>
+        <v>732</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G61">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E62">
-        <v>901</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G62">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E63">
-        <v>6</v>
-      </c>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>97</v>
+      </c>
+      <c r="F66" t="s">
         <v>17</v>
       </c>
-      <c r="G63">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64">
-        <v>21</v>
-      </c>
-      <c r="C64">
-        <v>739</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
-      </c>
-      <c r="E64">
-        <v>536</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
-        <v>18</v>
-      </c>
       <c r="G66">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>931</v>
+      </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G67">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>731</v>
+      </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G68">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>804</v>
+      </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E70">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>734</v>
+      </c>
       <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>612</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>740</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>817</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>382</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>304</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>568</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>158</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>583</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>941</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>737</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>818</v>
+      </c>
+      <c r="F91" t="s">
         <v>14</v>
       </c>
-      <c r="G71">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E75">
-        <v>590</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G91">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>414</v>
+      </c>
+      <c r="F92" t="s">
         <v>8</v>
       </c>
-      <c r="G75">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E76">
-        <v>270</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G92">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>747</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>627</v>
+      </c>
+      <c r="F94" t="s">
         <v>13</v>
       </c>
-      <c r="G76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E77">
-        <v>762</v>
-      </c>
-      <c r="F77" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E78">
-        <v>230</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G94">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>754</v>
+      </c>
+      <c r="F95" t="s">
         <v>10</v>
       </c>
-      <c r="G78">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E79">
-        <v>643</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E80">
-        <v>776</v>
-      </c>
-      <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E81">
-        <v>998</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E82">
-        <v>634</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="G95">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>831</v>
+      </c>
+      <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G82">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E83">
-        <v>651</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E84">
-        <v>730</v>
-      </c>
-      <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85">
-        <v>18</v>
-      </c>
-      <c r="C85">
-        <v>2608</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85">
-        <v>536</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90">
+      <c r="G96">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>396</v>
+      </c>
+      <c r="F97" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E91">
-        <v>866</v>
-      </c>
-      <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F93" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
       <c r="G97">
-        <v>174</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E98">
-        <v>674</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>582</v>
+      </c>
+      <c r="F99" t="s">
         <v>13</v>
       </c>
-      <c r="G98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
       <c r="G99">
-        <v>37</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>156</v>
+      </c>
       <c r="F100" t="s">
         <v>18</v>
       </c>
       <c r="G100">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>246</v>
+      </c>
       <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>113</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>722</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>109</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>998</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>419</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>234</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>399</v>
+      </c>
+      <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G101">
+      <c r="G108">
         <v>938</v>
       </c>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102">
-        <v>720</v>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>623</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
